--- a/pred_ohlcv/54_21/2020-01-22 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 QTUM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-545.6974733499993</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8277.526396989997</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-5930.917396989996</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>19540.36654396001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>18542.08274396001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>20103.66302578001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>19177.40062578001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>20003.87452578001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>19083.70812578001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>104939.5199499</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>110042.5199499</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>110043.0199499</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>109228.3676499</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>109229.3676499</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>107514.2551499</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>105002.78977158</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>97977.70292745998</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>97626.63572745997</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>97539.48362745997</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>95827.58380915994</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>95767.44600915995</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>95822.63980915994</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>96900.53556038994</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>97044.38906038993</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>96891.78486038993</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>94826.99596348996</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 QTUM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-545.6974733499993</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-8333.396096989996</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8277.526396989997</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-7028.766796989997</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7629.449196989996</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4360.375296989996</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2089.908496989996</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1989.908496989996</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1628.652496989996</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1656.972396989996</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5942.672896989996</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-5930.917396989996</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-5930.417396989996</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3572.675396989996</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-950.6923969899954</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>19540.36654396001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>18542.08274396001</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>20103.66302578001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>19177.40062578001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>20003.87452578001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>19083.70812578001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>104939.5199499</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>110043.0199499</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>109228.3676499</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>109229.3676499</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>107514.5551499</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>107514.2551499</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>102289.68474704</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>95827.58380915994</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>95767.44600915995</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>95822.63980915994</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>96900.53556038994</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>97044.38906038993</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>94826.99596348996</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>95280.47536348995</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
